--- a/medicine/Enfance/Lorenzo_Mattotti/Lorenzo_Mattotti.xlsx
+++ b/medicine/Enfance/Lorenzo_Mattotti/Lorenzo_Mattotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorenzo Mattotti[1] est un illustrateur, peintre[2] et auteur de bande dessinée italien né le 24 janvier 1954 à Brescia.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorenzo Mattotti est un illustrateur, peintre et auteur de bande dessinée italien né le 24 janvier 1954 à Brescia.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorenzo Mattotti, désireux dès le collège d'étudier l'art et d'être dessinateur avec son ami Fabrizio Ostani, doit cependant à cause de sa formation secondaire scientifique étudier l'architecture[3], ce qu'il fait à Venise avant de s'orienter vers le graphisme[4]. Durant ses études, il essaie de se faire publier ses bandes dessinées réalisées avec Ostani (qui prend le pseudonyme de Jerry Kramsky), mais ses tentatives d'intégrer Undercomix de Franco Bonvicini, Linus ou le Corriere dei Piccoli échouent, bien qu'il se soit rapproché de l'agence Quipos de Renato Calligaro, où il avait pu rencontrer Alberto Breccia[5], Altan, Carlos Sampayo, etc[3].
-En 1975, il publie ses premières bandes dessinées dans le fanzine français Biblipop puis dans la revue Circus. En 1976, il dessine un chapitre du recueil collectif Casanova. L'année suivante paraît son premier album, Alice Brum-Brum[Note 1], adaptation très libre et fantaisiste d’Alice au pays des merveilles[6], aux éditions Mondograf. À partir de 1978, il commence à s'intéresser au réel avec Tran Tram Rock[Note 1] puis avec Incidenti (Incidents). En 1980, il fonde avec d'autres auteurs le collectif d'artistes « Valvoline » qui vise à renouveler l'esthétique et la linguistique de la bande dessinée. Si, dans un premier temps, ses bandes dessinées étaient marquées par les influences de l'underground américain, il évolue à partir de 1982, avec Il Signor Spartaco (Le Signor Spartaco), vers un univers très pictural basé sur l'utilisation d'huile et de pastels.
-Il publie à partir de 1984 dans Alter Alter Fuochi (Feux), « long récit salué par la critique comme l'un des chefs-d'œuvre du 9e art » qui permet à la critique de voir en lui « l'un des dessinateurs les plus marquants de la nouvelle génération italienne[7] ». Il crée encore quelques bandes dessinées jusqu'au début des années 1990, même si à cette date il se consacre de plus en plus à son travail d'illustrateur, initié en 1984 dans Vanity[Note 2], et qui fait l'objet de nombreux recueils.
-Lorenzo Mattotti réalise de nombreuses couvertures (Le Monde, Télérama, Paris Match, Libération, Vanity Fair, Cosmopolitan, Glamour, The New Yorker...). Il a obtenu pour ses dessins de nombreux prix, dont le Grand Prix de la Biennale d'illustration de Bratislava (BIB) en 1993[8] pour Eugenio (ensuite adapté en dessin animé) et le Yellow Kid du meilleur illustrateur en 1997 à Rome. Stigmates en 1994, Anonymes en 2000 ou son adaptation de L'Étrange Cas du docteur Jekyll et de M. Hyde en 2002 et des participations en 2007 et 2008 à des collectifs des éditions Delcourt montrent cependant qu'il ne se désintéresse pas de la bande dessinée, même s'il admet lui préférer à partir de la fin des années 1990 l'illustration[9].
-Mattotti réside à Paris[2] depuis 1998 et ses livres sont traduits à l'international. Depuis 1977, une quarantaine d'expositions lui ont été consacrées dans des galeries privées.
-En 2020, il est nommé pour la 45e cérémonie des César, pour La Fameuse invasion des ours en Sicile, dans la catégorie du meilleur film d'animation[10]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorenzo Mattotti, désireux dès le collège d'étudier l'art et d'être dessinateur avec son ami Fabrizio Ostani, doit cependant à cause de sa formation secondaire scientifique étudier l'architecture, ce qu'il fait à Venise avant de s'orienter vers le graphisme. Durant ses études, il essaie de se faire publier ses bandes dessinées réalisées avec Ostani (qui prend le pseudonyme de Jerry Kramsky), mais ses tentatives d'intégrer Undercomix de Franco Bonvicini, Linus ou le Corriere dei Piccoli échouent, bien qu'il se soit rapproché de l'agence Quipos de Renato Calligaro, où il avait pu rencontrer Alberto Breccia, Altan, Carlos Sampayo, etc.
+En 1975, il publie ses premières bandes dessinées dans le fanzine français Biblipop puis dans la revue Circus. En 1976, il dessine un chapitre du recueil collectif Casanova. L'année suivante paraît son premier album, Alice Brum-Brum[Note 1], adaptation très libre et fantaisiste d’Alice au pays des merveilles, aux éditions Mondograf. À partir de 1978, il commence à s'intéresser au réel avec Tran Tram Rock[Note 1] puis avec Incidenti (Incidents). En 1980, il fonde avec d'autres auteurs le collectif d'artistes « Valvoline » qui vise à renouveler l'esthétique et la linguistique de la bande dessinée. Si, dans un premier temps, ses bandes dessinées étaient marquées par les influences de l'underground américain, il évolue à partir de 1982, avec Il Signor Spartaco (Le Signor Spartaco), vers un univers très pictural basé sur l'utilisation d'huile et de pastels.
+Il publie à partir de 1984 dans Alter Alter Fuochi (Feux), « long récit salué par la critique comme l'un des chefs-d'œuvre du 9e art » qui permet à la critique de voir en lui « l'un des dessinateurs les plus marquants de la nouvelle génération italienne ». Il crée encore quelques bandes dessinées jusqu'au début des années 1990, même si à cette date il se consacre de plus en plus à son travail d'illustrateur, initié en 1984 dans Vanity[Note 2], et qui fait l'objet de nombreux recueils.
+Lorenzo Mattotti réalise de nombreuses couvertures (Le Monde, Télérama, Paris Match, Libération, Vanity Fair, Cosmopolitan, Glamour, The New Yorker...). Il a obtenu pour ses dessins de nombreux prix, dont le Grand Prix de la Biennale d'illustration de Bratislava (BIB) en 1993 pour Eugenio (ensuite adapté en dessin animé) et le Yellow Kid du meilleur illustrateur en 1997 à Rome. Stigmates en 1994, Anonymes en 2000 ou son adaptation de L'Étrange Cas du docteur Jekyll et de M. Hyde en 2002 et des participations en 2007 et 2008 à des collectifs des éditions Delcourt montrent cependant qu'il ne se désintéresse pas de la bande dessinée, même s'il admet lui préférer à partir de la fin des années 1990 l'illustration.
+Mattotti réside à Paris depuis 1998 et ses livres sont traduits à l'international. Depuis 1977, une quarantaine d'expositions lui ont été consacrées dans des galeries privées.
+En 2020, il est nommé pour la 45e cérémonie des César, pour La Fameuse invasion des ours en Sicile, dans la catégorie du meilleur film d'animation
 </t>
         </is>
       </c>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteur de bande dessinée
-Intéressé par l'aspect artistique de la bande dessinée, et par une certaine forme de radicalité accentuée par sa participation à Valvoline, Mattotti a toujours voulu faire des « histoires bizarres[11] ». Ses œuvres tirent généralement plutôt leur origine du contrôle de « l'irrationnel du dessin[11] » que de la « logique de l'écriture[11] » afin de créer l'histoire à partir de l'image sans virer dans l'illustration pure. Cela lui a parfois valu d'être rejeté du champ de la bande dessinée par certains critiques, ce qui est « absurde », car Mattotti vient clairement de la bande dessinée[12].
-Illustrateur
-Les illustrations de Mattotti, le plus souvent des pastels, empruntent à tous les courants artistiques des XIXe et XXe siècles[13]. Cependant, si ses dessins perdent l'exubérance de ses bandes dessinées, ils se caractérisent tous par une « élégance qui fait le fond de toute sa production parce qu'elle est aussi et d'abord la caractéristique de son rapport à l'existence[14] ».
+          <t>Auteur de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intéressé par l'aspect artistique de la bande dessinée, et par une certaine forme de radicalité accentuée par sa participation à Valvoline, Mattotti a toujours voulu faire des « histoires bizarres ». Ses œuvres tirent généralement plutôt leur origine du contrôle de « l'irrationnel du dessin » que de la « logique de l'écriture » afin de créer l'histoire à partir de l'image sans virer dans l'illustration pure. Cela lui a parfois valu d'être rejeté du champ de la bande dessinée par certains critiques, ce qui est « absurde », car Mattotti vient clairement de la bande dessinée.
 </t>
         </is>
       </c>
@@ -578,14 +595,59 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les illustrations de Mattotti, le plus souvent des pastels, empruntent à tous les courants artistiques des XIXe et XXe siècles. Cependant, si ses dessins perdent l'exubérance de ses bandes dessinées, ils se caractérisent tous par une « élégance qui fait le fond de toute sa production parce qu'elle est aussi et d'abord la caractéristique de son rapport à l'existence ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bandes dessinées
-En français
-Dans des revues
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans des revues
 Le pont (dessin), avec Fabrizio Ostani (scénario), dans Circus no 2, Glénat, 1975
 Deux récits courts dans Métal hurlant, Les Humanoïdes Associés, 1983-1984
 Feux, dans L'Écho des savanes, Albin Michel, 1985-1986
@@ -602,18 +664,54 @@
 Murmure (dessin), avec Jerry Kramsky (scénario), Albin Michel, 1989, réed. Seuil, 2001.
 L'Homme à la fenêtre (dessin), avec Lilia Ambrosi (scénario), Albin Michel, 1992, réed. Casterman, 2003.
 Le Voyage de Caboto (dessin), avec Jorge Zentner (scénario), Albin Michel, 1993,  (ISBN 2-226-06565-2).
-Stigmate (dessin), avec Claudio Piersanti (scénario), dans Le Retour de Dieu, Autrement, 1994. Réed. en album Seuil, 1998[15].
+Stigmate (dessin), avec Claudio Piersanti (scénario), dans Le Retour de Dieu, Autrement, 1994. Réed. en album Seuil, 1998.
 L’Arbre du penseur, Amok, coll. « Feu », 1997.
-Docteur Jekyll &amp; Mister Hyde (dessin), avec Jerry Kramsky (scénario), Casterman, 2002[16].
+Docteur Jekyll &amp; Mister Hyde (dessin), avec Jerry Kramsky (scénario), Casterman, 2002.
 « Les 2 bossus » (dessin), avec Jerry Kramsky (scénario), dans Little Lit, t. 1 : Contes de fées, contes défaits, Seuil, 2002.
-Le Bruit du givre (dessin), avec Jorge Zentner (scénario), Seuil, 2003[17].
+Le Bruit du givre (dessin), avec Jorge Zentner (scénario), Seuil, 2003.
 Lettres d'un temps éloigné, Casterman, 2005.
 Monsieur Spartaco, voyage d'un épicentrique, Seuil, 2005 (réédition de il Signor Spartaco).
 Chimère, collection Ignatz, Coconino Press / Vertige Graphic, 2006.
 « Une femme sur la route », dans Paroles sans papiers, Delcourt, 2007.
 A Hard Rain's a-Gonna Fall, dans Bob Dylan Revisited, Delcourt, 2008.
-Guirlanda (dessin), avec Jerry Kramsky (scénario), Casterman, 2017,  (ISBN 978-2-203-02523-3)[18].
-Illustrations
+Guirlanda (dessin), avec Jerry Kramsky (scénario), Casterman, 2017,  (ISBN 978-2-203-02523-3).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pour Vanity, Albin Michel, 1987
 Pinocchio de Carlo Collodi, Albin Michel Jeunesse, 1990
 Mattotti, Albin Michel, 1990
@@ -644,116 +742,157 @@
 Vietnam, Louis Vuitton Travel Books, 2014
 Blind, #logosedizioni en collaboration avec CBM Italia, 2017
 Covers for The New Yorker, #logosedizioni, 2018.
-Divers
-Rouge, livre et couverture du disque de Jean-Jacques Goldman, texte de Sorj Chalandon, éditions P.A.U., Columbia, Sony Music
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rouge, livre et couverture du disque de Jean-Jacques Goldman, texte de Sorj Chalandon, éditions P.A.U., Columbia, Sony Music
 Affiches pour la Ville de Paris, 1998
 Affiche officielle du Festival de Cannes 2000
 Participation à Comicscope de David Rault, l'Apocalypse, 2013
-Illustration des différents sacs pour la chaîne de distribution E.Leclerc, depuis 2016[19]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+Illustration des différents sacs pour la chaîne de distribution E.Leclerc, depuis 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>En 1995, il illustre une adaptation de Barbe bleue dans Il était une fois….
 En 2004, il a travaillé sur le film Éros de Wong Kar-wai, Steven Soderbergh et Antonioni en créant les liens entre les trois épisodes.
 En 2005, dans le cadre de la collection "Comix" diffusée sur Arte, un documentaire lui est consacré "Le triomphe de la couleur" (26 min) (réa : Ludovic Cantais)
 Peur(s) du noir, scénario et dessin d'un court-métrage de ce film d'animation réalisé par six dessinateurs.
-La Fameuse Invasion des ours en Sicile, long métrage d'animation adapté du livre de Dino Buzzati sorti en 2019[20]. En 2016, le film recevait le Prix Spécial de l'Aide à la Création de la Fondation Gan pour le Cinéma.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+La Fameuse Invasion des ours en Sicile, long métrage d'animation adapté du livre de Dino Buzzati sorti en 2019. En 2016, le film recevait le Prix Spécial de l'Aide à la Création de la Fondation Gan pour le Cinéma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Fonds Hélène et Édouard Leclerc pour la culture de Landerneau présente la première exposition consacrée à l'artiste en France, Mattotti, Infini du 6 décembre 2015 au 6 mars 2016[21].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Fonds Hélène et Édouard Leclerc pour la culture de Landerneau présente la première exposition consacrée à l'artiste en France, Mattotti, Infini du 6 décembre 2015 au 6 mars 2016.
 Mattotti, Sconfini, du 28 octobre 2016 au 19 mars 2017, (à la Villa Manin, centre d'art contemporain à Passariano Di Codroipo).
 Lorenzo Mattotti - Variations Mattotti, du 24 avril au 17 mai 2022, (à l'occasion du PULP Festival à la Ferme du Buisson, Noisiel, centre d'art de Marne-la-Vallée).</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lorenzo_Mattotti</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1986 :  Plaque spéciale remise par le jury du festival de Lucques, pour l'ensemble de son œuvre.
 1992 :  Prix Max et Moritz de la meilleure publication de bande dessinée pour Feux.
-1993 :  Grand Prix de la Biennale d'illustration de Bratislava (BIB) pour Eugenio[22] (texte de Marianne Cockenpot).
+1993 :  Grand Prix de la Biennale d'illustration de Bratislava (BIB) pour Eugenio (texte de Marianne Cockenpot).
 1993 :  Prix Max et Moritz de la meilleure publication de bande dessinée importée pour L'Homme à la fenêtre (avec Lilia Ambrosi).
 2003 :  Prix Eisner de la meilleure édition américaine d'une œuvre internationale pour Docteur Jekyll &amp; Mister Hyde (avec Jerry Kramsky).
 2005 :  Prix « Grand Boum », pour l'ensemble de son œuvre, décerné par le festival bd BOUM de Blois.
 2012 :  Prix Max et Moritz exceptionnel pour une œuvre remarquable.
 2017:  Prix Gran Guinigi de la meilleure publication de bande dessinée au Festival de bande dessinée de Lucques.
-2019 :  Prix de la selection Un certain regard au festival de Cannes[23].</t>
+2019 :  Prix de la selection Un certain regard au festival de Cannes.</t>
         </is>
       </c>
     </row>
